--- a/biology/Médecine/Otto_Binswanger/Otto_Binswanger.xlsx
+++ b/biology/Médecine/Otto_Binswanger/Otto_Binswanger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto Ludwig Binswanger, né le 14 octobre 1852 à Scherzingen, dans la commune de Münsterlingen et mort le 15 juillet 1929 à Kreuzlingen, est un neurologue et psychiatre suisse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Membre d'une famille de médecins célèbres (son père a fondé le « Sanatorium Bellevue » de Kreuzlingen, et il était l'oncle de Ludwig Binswanger (1881-1966), figure importante du  mouvement de l'analyse existentielle), il est tout d'abord assistant de Theodor Meynert à Vienne (Autriche) et de Carl Westphal à l'hôpital de la Charité de Berlin. De 1882 à 1919, il enseigne à l'Université d'Iéna[1] dont il devient le recteur en 1911[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Membre d'une famille de médecins célèbres (son père a fondé le « Sanatorium Bellevue » de Kreuzlingen, et il était l'oncle de Ludwig Binswanger (1881-1966), figure importante du  mouvement de l'analyse existentielle), il est tout d'abord assistant de Theodor Meynert à Vienne (Autriche) et de Carl Westphal à l'hôpital de la Charité de Berlin. De 1882 à 1919, il enseigne à l'Université d'Iéna dont il devient le recteur en 1911.
 Otto Binswanger, à travers plus de 100 publications, étudie la neurologie. Son nom est attaché à la maladie de Binswanger, une encéphalopathie sous-corticale dégénérative. Un de ses patients célèbres fut Friedrich Nietzsche.
 </t>
         </is>
